--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H2">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I2">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J2">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>6.511286771262334</v>
+        <v>39.310008635636</v>
       </c>
       <c r="R2">
-        <v>58.60158094136101</v>
+        <v>353.790077720724</v>
       </c>
       <c r="S2">
-        <v>0.01655114948294017</v>
+        <v>0.04622930263477285</v>
       </c>
       <c r="T2">
-        <v>0.01655114948294017</v>
+        <v>0.04622930263477285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H3">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I3">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J3">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>3.965823091137889</v>
+        <v>9.003641609588</v>
       </c>
       <c r="R3">
-        <v>35.692407820241</v>
+        <v>81.032774486292</v>
       </c>
       <c r="S3">
-        <v>0.01008079249312401</v>
+        <v>0.01058845030136541</v>
       </c>
       <c r="T3">
-        <v>0.01008079249312402</v>
+        <v>0.01058845030136541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H4">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I4">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J4">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>1.517008033261445</v>
+        <v>4.499408407088</v>
       </c>
       <c r="R4">
-        <v>13.653072299353</v>
+        <v>40.494675663792</v>
       </c>
       <c r="S4">
-        <v>0.003856108263599568</v>
+        <v>0.005291388126029269</v>
       </c>
       <c r="T4">
-        <v>0.003856108263599568</v>
+        <v>0.00529138812602927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.530908</v>
+      </c>
+      <c r="H5">
+        <v>16.592724</v>
+      </c>
+      <c r="I5">
+        <v>0.06269514438603573</v>
+      </c>
+      <c r="J5">
+        <v>0.06269514438603574</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>2.436192333333334</v>
-      </c>
-      <c r="H5">
-        <v>7.308577000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.03060279702221278</v>
-      </c>
-      <c r="J5">
-        <v>0.03060279702221278</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.04514183187255556</v>
+        <v>0.498294250808</v>
       </c>
       <c r="R5">
-        <v>0.4062764868530001</v>
+        <v>4.484648257272</v>
       </c>
       <c r="S5">
-        <v>0.0001147467825490308</v>
+        <v>0.0005860033238682024</v>
       </c>
       <c r="T5">
-        <v>0.0001147467825490308</v>
+        <v>0.0005860033238682025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>179.007026</v>
       </c>
       <c r="I6">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J6">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>159.4792092026687</v>
+        <v>424.0875541532251</v>
       </c>
       <c r="R6">
-        <v>1435.312882824018</v>
+        <v>3816.787987379026</v>
       </c>
       <c r="S6">
-        <v>0.4053828872327071</v>
+        <v>0.4987348658788425</v>
       </c>
       <c r="T6">
-        <v>0.4053828872327072</v>
+        <v>0.4987348658788425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>179.007026</v>
       </c>
       <c r="I7">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J7">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>97.13384660060643</v>
@@ -883,10 +883,10 @@
         <v>874.2046194054579</v>
       </c>
       <c r="S7">
-        <v>0.2469061602439511</v>
+        <v>0.1142312135365011</v>
       </c>
       <c r="T7">
-        <v>0.2469061602439511</v>
+        <v>0.1142312135365011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>179.007026</v>
       </c>
       <c r="I8">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J8">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>37.15567291036822</v>
+        <v>48.54089766768977</v>
       </c>
       <c r="R8">
-        <v>334.401056193314</v>
+        <v>436.868079009208</v>
       </c>
       <c r="S8">
-        <v>0.09444663060962247</v>
+        <v>0.05708500013935099</v>
       </c>
       <c r="T8">
-        <v>0.09444663060962247</v>
+        <v>0.05708500013935099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>179.007026</v>
       </c>
       <c r="I9">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J9">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>1.105646840923778</v>
+        <v>5.375740108136444</v>
       </c>
       <c r="R9">
-        <v>9.950821568314</v>
+        <v>48.381660973228</v>
       </c>
       <c r="S9">
-        <v>0.002810462322168967</v>
+        <v>0.006321970535504702</v>
       </c>
       <c r="T9">
-        <v>0.002810462322168967</v>
+        <v>0.006321970535504703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H10">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I10">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J10">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>46.67359319802467</v>
+        <v>163.5825598788968</v>
       </c>
       <c r="R10">
-        <v>420.062338782222</v>
+        <v>1472.243038910071</v>
       </c>
       <c r="S10">
-        <v>0.1186403924545135</v>
+        <v>0.1923761385174781</v>
       </c>
       <c r="T10">
-        <v>0.1186403924545135</v>
+        <v>0.192376138517478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H11">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I11">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J11">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>28.42743994444244</v>
+        <v>37.46727090243811</v>
       </c>
       <c r="R11">
-        <v>255.846959499982</v>
+        <v>337.205438121943</v>
       </c>
       <c r="S11">
-        <v>0.07226018826483888</v>
+        <v>0.04406220872405583</v>
       </c>
       <c r="T11">
-        <v>0.07226018826483889</v>
+        <v>0.04406220872405581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H12">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I12">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J12">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>10.87407425135622</v>
+        <v>18.72359662889644</v>
       </c>
       <c r="R12">
-        <v>97.86666826220601</v>
+        <v>168.512369660068</v>
       </c>
       <c r="S12">
-        <v>0.02764099244056108</v>
+        <v>0.02201929851991909</v>
       </c>
       <c r="T12">
-        <v>0.02764099244056108</v>
+        <v>0.02201929851991909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H13">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I13">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J13">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>0.3235814319117778</v>
+        <v>2.073574948193111</v>
       </c>
       <c r="R13">
-        <v>2.912232887206</v>
+        <v>18.662174533738</v>
       </c>
       <c r="S13">
-        <v>0.000822517090341172</v>
+        <v>0.002438562776834451</v>
       </c>
       <c r="T13">
-        <v>0.0008225170903411721</v>
+        <v>0.002438562776834451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H14">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I14">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J14">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>0.1036119808563333</v>
+        <v>0.02231939682455556</v>
       </c>
       <c r="R14">
-        <v>0.932507827707</v>
+        <v>0.200874571421</v>
       </c>
       <c r="S14">
-        <v>0.0002633730387894194</v>
+        <v>2.624802655201129E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002633730387894194</v>
+        <v>2.624802655201129E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H15">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I15">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J15">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>0.06310684825188888</v>
+        <v>0.005112078499222223</v>
       </c>
       <c r="R15">
-        <v>0.567961634267</v>
+        <v>0.046008706493</v>
       </c>
       <c r="S15">
-        <v>0.0001604123601841822</v>
+        <v>6.011899570508348E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001604123601841822</v>
+        <v>6.011899570508347E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H16">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I16">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J16">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.02413965362344445</v>
+        <v>0.002554669540888889</v>
       </c>
       <c r="R16">
-        <v>0.217256882611</v>
+        <v>0.022992025868</v>
       </c>
       <c r="S16">
-        <v>6.136099201641663E-05</v>
+        <v>3.004338982274505E-06</v>
       </c>
       <c r="T16">
-        <v>6.136099201641663E-05</v>
+        <v>3.004338982274505E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H17">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I17">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J17">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>0.0007183272345555556</v>
+        <v>0.0002829210042222222</v>
       </c>
       <c r="R17">
-        <v>0.006464945111</v>
+        <v>0.002546289038</v>
       </c>
       <c r="S17">
-        <v>1.825928092933786E-06</v>
+        <v>3.32720372746653E-07</v>
       </c>
       <c r="T17">
-        <v>1.825928092933786E-06</v>
+        <v>3.32720372746653E-07</v>
       </c>
     </row>
   </sheetData>
